--- a/30-flux---suppression-du-flux-1/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/30-flux---suppression-du-flux-1/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:46:25+00:00</t>
+    <t>2025-10-09T12:00:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/30-flux---suppression-du-flux-1/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/30-flux---suppression-du-flux-1/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T12:00:32+00:00</t>
+    <t>2025-10-09T12:25:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/30-flux---suppression-du-flux-1/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/30-flux---suppression-du-flux-1/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T12:25:13+00:00</t>
+    <t>2025-10-09T12:25:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/30-flux---suppression-du-flux-1/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/30-flux---suppression-du-flux-1/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T12:25:55+00:00</t>
+    <t>2025-10-09T12:38:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/30-flux---suppression-du-flux-1/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/30-flux---suppression-du-flux-1/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T12:38:27+00:00</t>
+    <t>2025-10-15T07:51:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
